--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1975338.841987896</v>
+        <v>1993713.531454017</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>357.455166593102</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>302.1297585584152</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.98137063113176</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.08991703025477</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>101.5680490826699</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>15.41555748363824</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>161.1773868592355</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.94182778688895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>252.2612029891647</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>206.0181681025915</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.4625225902371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>192.3082080654541</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.21850068608594</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.15632229794481</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>33.35146980185854</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>67.90088782653663</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>134.7426179953489</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784722</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>60.61661699144754</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113197</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>106.8650345666301</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>36.74571574099163</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498035</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>66.75250548749439</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>88.18589455074876</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052011</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>105.7019814512373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>105.0903281190973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274313</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>70.14968808829757</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>192.3082080654541</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>87.65220976161997</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849751</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896938</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750116</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2092.477155601806</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>1723.514638661394</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1365.248940054644</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>979.4606874563995</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>568.474782666792</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>2092.477155601806</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.4549451025302</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>245.4549451025302</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>95.33830569019452</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E4" t="n">
-        <v>95.33830569019452</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F4" t="n">
-        <v>95.33830569019452</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G4" t="n">
-        <v>95.33830569019452</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H4" t="n">
-        <v>95.33830569019452</v>
+        <v>208.54453618662</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>72.21562528526826</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>245.4549451025302</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.4549451025302</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1371.274936282423</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>1371.274936282423</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.577820832729</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2505.400333146899</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2505.400333146899</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2505.400333146899</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2505.400333146899</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2505.400333146899</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>529.4200491697815</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4814,40 +4814,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5136,10 +5136,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5221,22 +5221,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028584</v>
@@ -5279,10 +5279,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5312,7 +5312,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1304.665555340272</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>1076.676004442255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>450.0103882072907</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>450.0103882072907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>299.8937487949549</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>299.8937487949549</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488382</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>898.7925182488382</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>670.8029673508208</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y19" t="n">
-        <v>450.0103882072907</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,10 +5771,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3492.843747251887</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>3492.843747251887</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>3492.843747251887</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>3492.843747251887</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3492.843747251887</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3492.843747251887</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1430.329515177562</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251887</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X22" t="n">
-        <v>3492.843747251887</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y22" t="n">
-        <v>3492.843747251887</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250802</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095315</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001779</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
         <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945773</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.19758416447</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698577</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1362.812616017146</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1362.812616017146</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1362.812616017146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1108.128127811259</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>818.7109577742983</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,22 +6215,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515098</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014296</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231267</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141871</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465305</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121734</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.52631485162</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690737</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.25929740961</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748358</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742903</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769788</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373973</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805661</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098444</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250807</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095319</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.474758001784</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281746</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945779</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164476</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601281</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916996</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014296</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.94846809807</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021848</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641236</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409493</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681291</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475758</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710805</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632138</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D28" t="n">
-        <v>822.148054050878</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688177</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799471</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471301</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974678</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980075</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585758</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557914</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119739</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119739</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>782.7991340754434</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>493.3819640384827</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>265.3924131404654</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155918</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805489</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>524.5778132641557</v>
+        <v>781.8780707889964</v>
       </c>
       <c r="C31" t="n">
-        <v>355.6416303362488</v>
+        <v>781.8780707889964</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6416303362488</v>
+        <v>631.7614313766607</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362488</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G31" t="n">
         <v>208.7516828383384</v>
@@ -6616,19 +6616,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="U31" t="n">
-        <v>927.0188572379255</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="V31" t="n">
-        <v>927.0188572379255</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="W31" t="n">
-        <v>927.0188572379255</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="X31" t="n">
-        <v>927.0188572379255</v>
+        <v>781.8780707889964</v>
       </c>
       <c r="Y31" t="n">
-        <v>706.2262780943954</v>
+        <v>781.8780707889964</v>
       </c>
     </row>
     <row r="32">
@@ -6695,40 +6695,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250802</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095315</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001779</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945773</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.19758416447</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698577</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4255.500682889111</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>4086.564499961204</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>3936.447860548868</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E34" t="n">
-        <v>3788.534766966475</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F34" t="n">
-        <v>3788.534766966475</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>4437.14914771935</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V34" t="n">
-        <v>4437.14914771935</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="W34" t="n">
-        <v>4437.14914771935</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="X34" t="n">
-        <v>4437.14914771935</v>
+        <v>981.7980808734442</v>
       </c>
       <c r="Y34" t="n">
-        <v>4437.14914771935</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,22 +6926,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6959,7 +6959,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.2482765610114</v>
+        <v>782.4872769945472</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>613.5510940666403</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>463.4344546543045</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>315.5213610719114</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>315.5213610719114</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="W37" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="X37" t="n">
-        <v>1281.689320534781</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="Y37" t="n">
-        <v>1060.896741391251</v>
+        <v>964.1357418247869</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822487</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.2349604684848</v>
+        <v>337.011545184453</v>
       </c>
       <c r="C40" t="n">
-        <v>674.2349604684848</v>
+        <v>168.0753622565461</v>
       </c>
       <c r="D40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W40" t="n">
-        <v>1304.665555340272</v>
+        <v>785.7936752260005</v>
       </c>
       <c r="X40" t="n">
-        <v>1076.676004442255</v>
+        <v>557.8041243279831</v>
       </c>
       <c r="Y40" t="n">
-        <v>855.8834252987245</v>
+        <v>337.011545184453</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690736</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409609</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742902</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769787</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373972</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.68132280566</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250806</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095319</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.474758001783</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281745</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945778</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164475</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601281</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916995</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641235</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409492</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.53946268129</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475758</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710804</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>354.6908600059907</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C43" t="n">
-        <v>185.7546770780838</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488382</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>644.1080300429513</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>354.6908600059907</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>354.6908600059907</v>
+        <v>836.7696400421421</v>
       </c>
       <c r="Y43" t="n">
-        <v>354.6908600059907</v>
+        <v>615.977060898612</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7643,55 +7643,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471273</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974675</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980072</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585755</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557911</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557911</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473463</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V46" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W46" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X46" t="n">
-        <v>3799.634725086986</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y46" t="n">
-        <v>3578.842145943456</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208042</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229567</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928331</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208042</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298284</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>48.84084321165255</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>94.21479027113693</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6134794958514</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>111.2647257249864</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>115.5623585656776</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>153.6466732318526</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>63.17819198825438</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>160.9309440669417</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>39.56892807993907</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>249.4916366575857</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229348</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.7410629758832</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>130.398758801346</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>60.7915870121403</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>120.6193272699399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>78.46578492991479</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>94.21479027113693</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>60.96326325659238</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388529</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.34209567542497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,10 +26071,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318337761</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978006</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978011</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>869228.2302978006</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.230297801</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583911</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459068</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925935</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029926</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230223</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230221</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871669</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295642.8611048314</v>
+        <v>-293114.5399413891</v>
       </c>
       <c r="C6" t="n">
-        <v>294325.018109713</v>
+        <v>296853.3392731554</v>
       </c>
       <c r="D6" t="n">
-        <v>294325.018109713</v>
+        <v>296853.3392731553</v>
       </c>
       <c r="E6" t="n">
-        <v>-120596.4965700048</v>
+        <v>-118561.6773320081</v>
       </c>
       <c r="F6" t="n">
-        <v>404563.5399068909</v>
+        <v>406598.3591448879</v>
       </c>
       <c r="G6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="H6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="I6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="J6" t="n">
-        <v>228140.3207142979</v>
+        <v>230175.1399522946</v>
       </c>
       <c r="K6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="L6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.359144888</v>
       </c>
       <c r="M6" t="n">
-        <v>269762.5246730536</v>
+        <v>271797.3439110509</v>
       </c>
       <c r="N6" t="n">
-        <v>404563.5399068909</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="O6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.3591448878</v>
       </c>
       <c r="P6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.359144888</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,25 +26811,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545565</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.32900342769301</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>84.10818009763841</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>93.98425116120646</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>27.11004215828223</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253.114992538013</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.06284509117346</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>89.56002855569153</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>64.53226852980166</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>316.7920138765916</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>117.4698976893044</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>19.69148728644561</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.12213076185765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.298977755714201e-12</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.765211552329</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.702428529921</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734233</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.765211552329</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789805</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1993713.531454017</v>
+        <v>2069243.201118822</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>86.58345831040558</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>302.1297585584152</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.08991703025477</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>12.77609278441097</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.41555748363824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>110.0115294480439</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>161.1773868592355</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>312.6281915354172</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>252.2612029891647</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>42.15874962485193</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>206.0181681025915</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.45940450219452</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.7067178467367</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.21850068608594</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>96.84207451769305</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.46558451418868</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>67.90088782653663</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>81.90355835744664</v>
+        <v>127.617615958408</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784722</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>110.6780064526354</v>
       </c>
       <c r="T28" t="n">
-        <v>60.61661699144754</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113197</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>106.8650345666301</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231518</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498035</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>161.4562518681533</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.18589455074876</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052011</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>105.7019814512373</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>144.3656701392233</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>70.14968808829757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>145.1827173075698</v>
       </c>
       <c r="V43" t="n">
-        <v>143.2925104849751</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896938</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4186,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750116</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2609.691052320843</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>208.54453618662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>208.54453618662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>72.21562528526826</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2681.577820832729</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2505.400333146899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2505.400333146899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2505.400333146899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2505.400333146899</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2505.400333146899</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2131.93457488582</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4649,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>1567.641263708174</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1198.678746767762</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1198.678746767762</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.631866751719</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="Y8" t="n">
-        <v>1269.492534775907</v>
+        <v>1954.241103772295</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>656.1274694793975</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>656.1274694793975</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>656.1274694793975</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>656.1274694793975</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>656.1274694793975</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541693</v>
+        <v>656.1274694793975</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>428.1379185813802</v>
       </c>
     </row>
     <row r="11">
@@ -5039,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5221,22 +5223,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028584</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5288,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.134140516355</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>881.1979575884482</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1124.545030325236</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550796</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570622</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1400.466185190035</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1400.466185190035</v>
       </c>
       <c r="T22" t="n">
-        <v>1430.329515177562</v>
+        <v>1400.466185190035</v>
       </c>
       <c r="U22" t="n">
-        <v>1141.200876391121</v>
+        <v>1111.337546403593</v>
       </c>
       <c r="V22" t="n">
-        <v>1141.200876391121</v>
+        <v>1111.337546403593</v>
       </c>
       <c r="W22" t="n">
-        <v>1141.200876391121</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.200876391121</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.900558318119</v>
+        <v>3907.114899043188</v>
       </c>
       <c r="C25" t="n">
-        <v>441.900558318119</v>
+        <v>3738.178716115281</v>
       </c>
       <c r="D25" t="n">
-        <v>441.900558318119</v>
+        <v>3588.062076702945</v>
       </c>
       <c r="E25" t="n">
-        <v>441.900558318119</v>
+        <v>3588.062076702945</v>
       </c>
       <c r="F25" t="n">
-        <v>441.900558318119</v>
+        <v>3588.062076702945</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.900558318119</v>
+        <v>4088.763363873428</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6221,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141871</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465305</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121734</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.52631485162</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690737</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.25929740961</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748358</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742903</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769788</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373973</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805661</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098444</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250807</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095319</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.474758001784</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281746</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945779</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164476</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4555.115143601281</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916996</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014296</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.94846809807</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021848</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641236</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409493</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681291</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475758</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710805</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404654</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404654</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404654</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404654</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404654</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028593</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688177</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799471</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471301</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974678</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980075</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585758</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557914</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119739</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119739</v>
+        <v>1387.120304444129</v>
       </c>
       <c r="T28" t="n">
-        <v>1326.612261067772</v>
+        <v>1387.120304444129</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.48362228133</v>
+        <v>1097.991665657687</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754434</v>
+        <v>843.3071774518004</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384827</v>
+        <v>843.3071774518004</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404654</v>
+        <v>615.317626553783</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404654</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155918</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805489</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8780707889964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8780707889964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7614313766607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687014</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>1009.867621687014</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.867621687014</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>781.8780707889964</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>781.8780707889964</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,61 +6691,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.2170914602859</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256436</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277036</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341679</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1335.829147458757</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771462</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771462</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.787631771462</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X34" t="n">
-        <v>981.7980808734442</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y34" t="n">
-        <v>892.7214197110717</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>782.4872769945472</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="C37" t="n">
-        <v>613.5510940666403</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D37" t="n">
-        <v>463.4344546543045</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E37" t="n">
-        <v>315.5213610719114</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>315.5213610719114</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247869</v>
+        <v>1353.092361326364</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247869</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="V37" t="n">
-        <v>964.1357418247869</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="W37" t="n">
-        <v>964.1357418247869</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="X37" t="n">
-        <v>964.1357418247869</v>
+        <v>1063.963722539922</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.1357418247869</v>
+        <v>843.1711433963917</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155913</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822487</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>337.011545184453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0753622565461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.210845262961</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>785.7936752260005</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>557.8041243279831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>337.011545184453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,25 +7435,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690736</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409609</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742902</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769787</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373972</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.68132280566</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250806</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095319</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001783</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281745</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945778</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164475</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601281</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916995</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014295</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641235</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409492</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.53946268129</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475758</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710804</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683722</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404653</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404653</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404653</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404653</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G43" t="n">
-        <v>97.2170914602859</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>97.2170914602859</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.2170914602859</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>4603.130260174532</v>
       </c>
       <c r="V43" t="n">
-        <v>1354.17636097712</v>
+        <v>4603.130260174532</v>
       </c>
       <c r="W43" t="n">
-        <v>1064.759190940159</v>
+        <v>4313.713090137571</v>
       </c>
       <c r="X43" t="n">
-        <v>836.7696400421421</v>
+        <v>4085.723539239554</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.977060898612</v>
+        <v>4085.723539239554</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155913</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471273</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974675</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980072</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585755</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557911</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557911</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473463</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387593</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011508</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583033</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>85.30006332127823</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208042</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776738</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445211</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229567</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445211</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776738</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445211</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928331</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208042</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298284</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>90.15606851601783</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>48.84084321165255</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6134794958514</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>124.7054865406962</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>12.49876788960411</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>153.6466732318526</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>84.59001010593094</v>
+        <v>38.87595250496958</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>87.24280353096783</v>
       </c>
       <c r="T28" t="n">
-        <v>160.9309440669417</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>39.56892807993907</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>61.34209567542553</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>60.09130919023599</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.398758801346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>60.7915870121403</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>77.18189091916599</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>78.46578492991479</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25840,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>141.0546350910075</v>
       </c>
       <c r="V43" t="n">
-        <v>108.8451328388529</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318337761</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>869228.2302978011</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869228.230297801</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583909</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459066</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459072</v>
       </c>
       <c r="J2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925935</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26436,25 +26438,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230223</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230221</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26482,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293114.5399413891</v>
+        <v>-293114.5399413889</v>
       </c>
       <c r="C6" t="n">
+        <v>296853.3392731553</v>
+      </c>
+      <c r="D6" t="n">
         <v>296853.3392731554</v>
       </c>
-      <c r="D6" t="n">
-        <v>296853.3392731553</v>
-      </c>
       <c r="E6" t="n">
-        <v>-118561.6773320081</v>
+        <v>-118561.6773320082</v>
       </c>
       <c r="F6" t="n">
+        <v>406598.3591448877</v>
+      </c>
+      <c r="G6" t="n">
+        <v>406598.3591448881</v>
+      </c>
+      <c r="H6" t="n">
         <v>406598.3591448879</v>
-      </c>
-      <c r="G6" t="n">
-        <v>406598.3591448882</v>
-      </c>
-      <c r="H6" t="n">
-        <v>406598.3591448881</v>
       </c>
       <c r="I6" t="n">
         <v>406598.3591448882</v>
       </c>
       <c r="J6" t="n">
-        <v>230175.1399522946</v>
+        <v>230175.1399522953</v>
       </c>
       <c r="K6" t="n">
+        <v>406598.3591448881</v>
+      </c>
+      <c r="L6" t="n">
+        <v>406598.3591448881</v>
+      </c>
+      <c r="M6" t="n">
+        <v>271797.3439110506</v>
+      </c>
+      <c r="N6" t="n">
+        <v>406598.3591448879</v>
+      </c>
+      <c r="O6" t="n">
+        <v>406598.359144888</v>
+      </c>
+      <c r="P6" t="n">
         <v>406598.3591448882</v>
-      </c>
-      <c r="L6" t="n">
-        <v>406598.359144888</v>
-      </c>
-      <c r="M6" t="n">
-        <v>271797.3439110509</v>
-      </c>
-      <c r="N6" t="n">
-        <v>406598.3591448881</v>
-      </c>
-      <c r="O6" t="n">
-        <v>406598.3591448878</v>
-      </c>
-      <c r="P6" t="n">
-        <v>406598.359144888</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,25 +26813,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545565</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>164.6407091978837</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>84.10818009763841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>27.11004215828223</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.71246049576317</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>369.9577488790696</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.06284509117346</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>36.65366253211398</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>64.53226852980166</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>69.30217853684462</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>117.4698976893044</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>104.5064423553059</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>19.69148728644561</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29284,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33970,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34207,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35173,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35662,7 +35664,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,16 +35740,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36223,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.765211552329</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.702428529921</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091987</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879394</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734233</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415667</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315249</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091987</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.765211552329</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789805</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2069243.201118822</v>
+        <v>2062226.186227112</v>
       </c>
     </row>
     <row r="7">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>324.8533966564055</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>86.58345831040558</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>132.997194893274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.77609278441097</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>103.2376789178145</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.0115294480439</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>312.6281915354172</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>308.9734542191752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>42.15874962485193</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.03801681746304</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.45940450219452</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.68610738332239</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>96.84207451769305</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>58.11204464941584</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.46558451418868</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>127.617615958408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>110.6780064526354</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>224.8952567231518</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>161.4562518681533</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>144.3656701392233</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>145.1827173075698</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1515.02307474038</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1146.060557799969</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>787.7948591932184</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2609.691052320843</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2278.628164977272</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2278.628164977272</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1905.162406716192</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1515.02307474038</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>593.7883833041373</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.641263708174</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.678746767762</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D8" t="n">
-        <v>1198.678746767762</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>1194.987092912972</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>784.0011881233647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>366.0373800215516</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748107</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748107</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772295</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>656.1274694793975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>428.1379185813802</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>428.1379185813802</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305956</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,25 +5360,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1050.134140516355</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>881.1979575884482</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1482.061616635355</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659885</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516355</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>302.8060739576061</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1400.466185190035</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1400.466185190035</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1400.466185190035</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1111.337546403593</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>1111.337546403593</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W22" t="n">
-        <v>821.9203763666327</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X22" t="n">
-        <v>593.9308254686154</v>
+        <v>705.247117931376</v>
       </c>
       <c r="Y22" t="n">
-        <v>593.9308254686154</v>
+        <v>484.4545387878459</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822458</v>
@@ -5992,22 +5992,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3907.114899043188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3738.178716115281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3588.062076702945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3588.062076702945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3588.062076702945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808406</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>4316.752914771445</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>4088.763363873428</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4088.763363873428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,28 +6247,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,16 +6302,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.5250474102529</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C28" t="n">
-        <v>394.5250474102529</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.120304444129</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.120304444129</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1097.991665657687</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>843.3071774518004</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>843.3071774518004</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>615.317626553783</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y28" t="n">
-        <v>394.5250474102529</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,16 +6542,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,28 +6700,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028587</v>
@@ -6864,16 +6864,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1335.829147458757</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1046.700508672316</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1046.700508672316</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,13 +6949,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7016,16 +7016,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>843.1711433963917</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C37" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D37" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1353.092361326364</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1063.963722539922</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1063.963722539922</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1063.963722539922</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1063.963722539922</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.1711433963917</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,10 +7396,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7411,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7456,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4603.130260174532</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4603.130260174532</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4313.713090137571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4085.723539239554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4085.723539239554</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7836,16 +7836,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.2088042811648</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037966</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>90.15606851601783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>181.2347026002809</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>124.7054865406962</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>109.134776449212</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.49876788960411</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>38.87595250496958</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>87.24280353096783</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>61.34209567542553</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>60.09130919023599</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>130.450358662183</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>77.18189091916599</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>141.0546350910075</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="14">
@@ -26319,43 +26319,43 @@
         <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.2306459066</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26441,13 +26441,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26481,34 +26481,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>296853.3392731553</v>
       </c>
       <c r="D6" t="n">
-        <v>296853.3392731554</v>
+        <v>296853.3392731553</v>
       </c>
       <c r="E6" t="n">
-        <v>-118561.6773320082</v>
+        <v>-119536.2685917293</v>
       </c>
       <c r="F6" t="n">
-        <v>406598.3591448877</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="G6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851667</v>
       </c>
       <c r="H6" t="n">
-        <v>406598.3591448879</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="I6" t="n">
-        <v>406598.3591448882</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="J6" t="n">
-        <v>230175.1399522953</v>
+        <v>229200.5486925736</v>
       </c>
       <c r="K6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="L6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851666</v>
       </c>
       <c r="M6" t="n">
-        <v>271797.3439110506</v>
+        <v>270822.7526513295</v>
       </c>
       <c r="N6" t="n">
-        <v>406598.3591448879</v>
+        <v>405623.7678851666</v>
       </c>
       <c r="O6" t="n">
-        <v>406598.359144888</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="P6" t="n">
-        <v>406598.3591448882</v>
+        <v>405623.7678851663</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>82.02264908530594</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>164.6407091978837</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.8197898846882</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.71246049576317</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>369.9577488790696</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>303.6383668238969</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>36.65366253211398</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>69.30217853684462</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>14.94931854518194</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>104.5064423553059</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33827,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35664,13 +35664,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2062226.186227112</v>
+        <v>2067165.449076143</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>324.8533966564055</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>134.4518684629374</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>59.66385641544537</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>103.2376789178145</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>17.02555585116066</v>
       </c>
       <c r="H8" t="n">
-        <v>308.9734542191752</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.03801681746304</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.6355966898277</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>16.68610738332239</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>189.0621789838898</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>32.8965767413795</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>58.11204464941584</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>3.250241677064703</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>146.278729911946</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>8.972498717271243</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>122.3137095599312</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.04606869856578</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>48.37466424891435</v>
       </c>
     </row>
     <row r="44">
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.1707519847946</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.521057189058</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>935.2553585823075</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>549.4671059840632</v>
+        <v>196.6984507139492</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>189.7529499647457</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4555,13 +4555,13 @@
         <v>576.1872736775458</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
         <v>667.8624625746712</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.775345511217</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C8" t="n">
-        <v>1580.775345511217</v>
+        <v>1706.841064946663</v>
       </c>
       <c r="D8" t="n">
-        <v>1580.775345511217</v>
+        <v>1348.575366339912</v>
       </c>
       <c r="E8" t="n">
-        <v>1194.987092912972</v>
+        <v>962.787113741668</v>
       </c>
       <c r="F8" t="n">
-        <v>784.0011881233647</v>
+        <v>551.8012089520605</v>
       </c>
       <c r="G8" t="n">
-        <v>366.0373800215516</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.6964226305956</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>135.2328456924351</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305956</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.6964226305956</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1482.061616635355</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1258.27620142486</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1258.27620142486</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1003.591713218973</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W16" t="n">
-        <v>714.1745431820127</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201016</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5849,7 +5849,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>302.8060739576061</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293934</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>933.2366688293934</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X22" t="n">
-        <v>705.247117931376</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y22" t="n">
-        <v>484.4545387878459</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>1289.933130456009</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>1035.248642250122</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,19 +6314,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6557,13 +6557,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6654,19 +6654,19 @@
         <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1418.061655710866</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1218.141645626418</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>994.3562304159243</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X37" t="n">
-        <v>441.900558318119</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y37" t="n">
-        <v>441.900558318119</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7174,13 +7174,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0940094559509</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0940094559509</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>358.9186877757714</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.5006793237147</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>124.2088042811648</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>111.2782316777084</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037966</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.2347026002809</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>36.64747640514736</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>33.08849621799476</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>113.5373859051897</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>109.134776449212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>142.1708063458665</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>75.26883114644326</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.2648536813061</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>103.3959458291059</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.450358662183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>29.91828370522701</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.34209567542521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>170.2099891031804</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0.2484934794774034</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978006</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583909</v>
@@ -26325,37 +26325,37 @@
         <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26490,10 +26490,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293114.5399413889</v>
+        <v>-293114.539941389</v>
       </c>
       <c r="C6" t="n">
         <v>296853.3392731553</v>
@@ -26530,40 +26530,40 @@
         <v>296853.3392731553</v>
       </c>
       <c r="E6" t="n">
-        <v>-119536.2685917293</v>
+        <v>-118659.13645798</v>
       </c>
       <c r="F6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189157</v>
       </c>
       <c r="G6" t="n">
-        <v>405623.7678851667</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="H6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="I6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="J6" t="n">
-        <v>229200.5486925736</v>
+        <v>230077.6808263227</v>
       </c>
       <c r="K6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189157</v>
       </c>
       <c r="L6" t="n">
-        <v>405623.7678851666</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="M6" t="n">
-        <v>270822.7526513295</v>
+        <v>271699.8847850786</v>
       </c>
       <c r="N6" t="n">
-        <v>405623.7678851666</v>
+        <v>406500.9000189158</v>
       </c>
       <c r="O6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="P6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.900018916</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26773,7 +26773,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>82.02264908530594</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>279.3323015578576</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>208.8197898846882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>158.9207969366494</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>303.6383668238969</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>55.56968306875818</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>158.9207969366492</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>396.7586141696343</v>
       </c>
       <c r="H8" t="n">
-        <v>14.94931854518194</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36925,16 +36925,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
